--- a/hasil_penelitian/Evaluasi Model Klasifikasi.xlsx
+++ b/hasil_penelitian/Evaluasi Model Klasifikasi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\klasifikasi-kopra\hasil_penelitian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\kopra-introduction\hasil_penelitian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180A8DDF-B79A-4B9F-BB38-0004B83D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF83510-BDF7-429D-B18B-68DB031C2AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1110,6 +1110,87 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,53 +1218,8 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1191,56 +1227,20 @@
     <xf numFmtId="2" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9783,7 +9783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
@@ -9807,42 +9807,42 @@
   <sheetData>
     <row r="1" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="T1" s="91" t="s">
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="T1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91" t="s">
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
       <c r="AI1" s="25"/>
       <c r="AJ1" s="25"/>
       <c r="AK1" s="25"/>
@@ -9863,34 +9863,34 @@
     <row r="2" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
       <c r="AI2" s="25"/>
       <c r="AJ2" s="25"/>
       <c r="AK2" s="25"/>
@@ -9909,42 +9909,42 @@
       <c r="AX2" s="25"/>
     </row>
     <row r="3" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="R3" s="83" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="R3" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
       <c r="AI3" s="25"/>
       <c r="AJ3" s="25"/>
       <c r="AK3" s="25"/>
@@ -9963,24 +9963,24 @@
       <c r="AX3" s="25"/>
     </row>
     <row r="4" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
       <c r="AI4" s="25"/>
       <c r="AJ4" s="25"/>
       <c r="AK4" s="25"/>
@@ -10033,50 +10033,50 @@
       <c r="AX5" s="25"/>
     </row>
     <row r="6" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="85" t="s">
+      <c r="B6" s="89"/>
+      <c r="C6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="R6" s="92" t="s">
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="R6" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="93"/>
-      <c r="T6" s="88" t="s">
+      <c r="S6" s="89"/>
+      <c r="T6" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="88" t="s">
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="89"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="89"/>
-      <c r="AG6" s="90"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="73"/>
       <c r="AI6" s="25"/>
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
@@ -10095,8 +10095,8 @@
       <c r="AX6" s="25"/>
     </row>
     <row r="7" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="95"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="11">
         <v>1</v>
       </c>
@@ -10139,8 +10139,8 @@
       <c r="P7" s="11">
         <v>7</v>
       </c>
-      <c r="R7" s="94"/>
-      <c r="S7" s="95"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="91"/>
       <c r="T7" s="11">
         <v>1</v>
       </c>
@@ -10201,10 +10201,10 @@
       <c r="AX7" s="25"/>
     </row>
     <row r="8" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -10219,10 +10219,10 @@
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
-      <c r="R8" s="98" t="s">
+      <c r="R8" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="99"/>
+      <c r="S8" s="112"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
@@ -10255,10 +10255,10 @@
       <c r="AX8" s="25"/>
     </row>
     <row r="9" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="42">
         <v>0.71740000000000004</v>
       </c>
@@ -10301,10 +10301,10 @@
       <c r="P9" s="43">
         <v>0.83699999999999997</v>
       </c>
-      <c r="R9" s="80" t="s">
+      <c r="R9" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="81"/>
+      <c r="S9" s="77"/>
       <c r="T9" s="42">
         <v>0.75</v>
       </c>
@@ -10365,10 +10365,10 @@
       <c r="AX9" s="25"/>
     </row>
     <row r="10" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="42">
         <v>0.71009999999999995</v>
       </c>
@@ -10411,10 +10411,10 @@
       <c r="P10" s="43">
         <v>0.83689999999999998</v>
       </c>
-      <c r="R10" s="80" t="s">
+      <c r="R10" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="81"/>
+      <c r="S10" s="77"/>
       <c r="T10" s="42">
         <v>0.74199999999999999</v>
       </c>
@@ -10475,10 +10475,10 @@
       <c r="AX10" s="25"/>
     </row>
     <row r="11" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="81"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="42">
         <v>0.70660000000000001</v>
       </c>
@@ -10521,10 +10521,10 @@
       <c r="P11" s="43">
         <v>0.83399999999999996</v>
       </c>
-      <c r="R11" s="80" t="s">
+      <c r="R11" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="81"/>
+      <c r="S11" s="77"/>
       <c r="T11" s="42">
         <v>0.73850000000000005</v>
       </c>
@@ -10585,10 +10585,10 @@
       <c r="AX11" s="25"/>
     </row>
     <row r="12" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="81"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="42">
         <v>0.70569999999999999</v>
       </c>
@@ -10631,10 +10631,10 @@
       <c r="P12" s="43">
         <v>0.83460000000000001</v>
       </c>
-      <c r="R12" s="80" t="s">
+      <c r="R12" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="81"/>
+      <c r="S12" s="77"/>
       <c r="T12" s="42">
         <v>0.73699999999999999</v>
       </c>
@@ -10695,10 +10695,10 @@
       <c r="AX12" s="25"/>
     </row>
     <row r="13" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="101"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
@@ -10713,10 +10713,10 @@
       <c r="N13" s="44"/>
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
-      <c r="R13" s="96" t="s">
+      <c r="R13" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="97"/>
+      <c r="S13" s="109"/>
       <c r="T13" s="62"/>
       <c r="U13" s="62"/>
       <c r="V13" s="62"/>
@@ -10749,10 +10749,10 @@
       <c r="AX13" s="25"/>
     </row>
     <row r="14" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="81"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="42">
         <v>0.70109999999999995</v>
       </c>
@@ -10795,10 +10795,10 @@
       <c r="P14" s="43">
         <v>0.84240000000000004</v>
       </c>
-      <c r="R14" s="80" t="s">
+      <c r="R14" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="81"/>
+      <c r="S14" s="77"/>
       <c r="T14" s="42">
         <v>0.69569999999999999</v>
       </c>
@@ -10859,10 +10859,10 @@
       <c r="AX14" s="25"/>
     </row>
     <row r="15" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="81"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="42">
         <v>0.69579999999999997</v>
       </c>
@@ -10905,10 +10905,10 @@
       <c r="P15" s="43">
         <v>0.83840000000000003</v>
       </c>
-      <c r="R15" s="80" t="s">
+      <c r="R15" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="81"/>
+      <c r="S15" s="77"/>
       <c r="T15" s="42">
         <v>0.69099999999999995</v>
       </c>
@@ -10969,10 +10969,10 @@
       <c r="AX15" s="25"/>
     </row>
     <row r="16" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="81"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="42">
         <v>0.69340000000000002</v>
       </c>
@@ -11015,10 +11015,10 @@
       <c r="P16" s="43">
         <v>0.83889999999999998</v>
       </c>
-      <c r="R16" s="80" t="s">
+      <c r="R16" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="81"/>
+      <c r="S16" s="77"/>
       <c r="T16" s="42">
         <v>0.68959999999999999</v>
       </c>
@@ -11079,10 +11079,10 @@
       <c r="AX16" s="25"/>
     </row>
     <row r="17" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="81"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="42">
         <v>0.6925</v>
       </c>
@@ -11125,10 +11125,10 @@
       <c r="P17" s="43">
         <v>0.83819999999999995</v>
       </c>
-      <c r="R17" s="80" t="s">
+      <c r="R17" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="81"/>
+      <c r="S17" s="77"/>
       <c r="T17" s="42">
         <v>0.68889999999999996</v>
       </c>
@@ -11189,10 +11189,10 @@
       <c r="AX17" s="25"/>
     </row>
     <row r="18" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
@@ -11207,10 +11207,10 @@
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
       <c r="P18" s="44"/>
-      <c r="R18" s="96" t="s">
+      <c r="R18" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="S18" s="97"/>
+      <c r="S18" s="109"/>
       <c r="T18" s="62"/>
       <c r="U18" s="62"/>
       <c r="V18" s="62"/>
@@ -11243,10 +11243,10 @@
       <c r="AX18" s="25"/>
     </row>
     <row r="19" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="81"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="42">
         <v>0.75</v>
       </c>
@@ -11289,10 +11289,10 @@
       <c r="P19" s="43">
         <v>0.80430000000000001</v>
       </c>
-      <c r="R19" s="80" t="s">
+      <c r="R19" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="81"/>
+      <c r="S19" s="77"/>
       <c r="T19" s="42">
         <v>0.76629999999999998</v>
       </c>
@@ -11353,10 +11353,10 @@
       <c r="AX19" s="25"/>
     </row>
     <row r="20" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="81"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="42">
         <v>0.74780000000000002</v>
       </c>
@@ -11399,10 +11399,10 @@
       <c r="P20" s="43">
         <v>0.80189999999999995</v>
       </c>
-      <c r="R20" s="80" t="s">
+      <c r="R20" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="81"/>
+      <c r="S20" s="77"/>
       <c r="T20" s="42">
         <v>0.76759999999999995</v>
       </c>
@@ -11463,10 +11463,10 @@
       <c r="AX20" s="25"/>
     </row>
     <row r="21" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="81"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="42">
         <v>0.74329999999999996</v>
       </c>
@@ -11509,10 +11509,10 @@
       <c r="P21" s="43">
         <v>0.80120000000000002</v>
       </c>
-      <c r="R21" s="80" t="s">
+      <c r="R21" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="81"/>
+      <c r="S21" s="77"/>
       <c r="T21" s="42">
         <v>0.7591</v>
       </c>
@@ -11573,10 +11573,10 @@
       <c r="AX21" s="25"/>
     </row>
     <row r="22" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="81"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="42">
         <v>0.74450000000000005</v>
       </c>
@@ -11619,10 +11619,10 @@
       <c r="P22" s="43">
         <v>0.8014</v>
       </c>
-      <c r="R22" s="80" t="s">
+      <c r="R22" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="81"/>
+      <c r="S22" s="77"/>
       <c r="T22" s="42">
         <v>0.75960000000000005</v>
       </c>
@@ -11683,10 +11683,10 @@
       <c r="AX22" s="25"/>
     </row>
     <row r="23" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
@@ -11701,10 +11701,10 @@
       <c r="N23" s="44"/>
       <c r="O23" s="44"/>
       <c r="P23" s="44"/>
-      <c r="R23" s="96" t="s">
+      <c r="R23" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="S23" s="97"/>
+      <c r="S23" s="109"/>
       <c r="T23" s="62"/>
       <c r="U23" s="62"/>
       <c r="V23" s="62"/>
@@ -11737,10 +11737,10 @@
       <c r="AX23" s="25"/>
     </row>
     <row r="24" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="81"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="42">
         <v>0.6522</v>
       </c>
@@ -11783,10 +11783,10 @@
       <c r="P24" s="43">
         <v>0.77170000000000005</v>
       </c>
-      <c r="R24" s="100" t="s">
+      <c r="R24" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="100"/>
+      <c r="S24" s="78"/>
       <c r="T24" s="42">
         <v>0.65759999999999996</v>
       </c>
@@ -11847,10 +11847,10 @@
       <c r="AX24" s="25"/>
     </row>
     <row r="25" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="81"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="42">
         <v>0.65329999999999999</v>
       </c>
@@ -11893,10 +11893,10 @@
       <c r="P25" s="43">
         <v>0.77149999999999996</v>
       </c>
-      <c r="R25" s="100" t="s">
+      <c r="R25" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="S25" s="100"/>
+      <c r="S25" s="78"/>
       <c r="T25" s="42">
         <v>0.66120000000000001</v>
       </c>
@@ -11957,10 +11957,10 @@
       <c r="AX25" s="25"/>
     </row>
     <row r="26" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="81"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="42">
         <v>0.64300000000000002</v>
       </c>
@@ -12003,10 +12003,10 @@
       <c r="P26" s="43">
         <v>0.76759999999999995</v>
       </c>
-      <c r="R26" s="100" t="s">
+      <c r="R26" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="S26" s="100"/>
+      <c r="S26" s="78"/>
       <c r="T26" s="42">
         <v>0.64870000000000005</v>
       </c>
@@ -12067,10 +12067,10 @@
       <c r="AX26" s="25"/>
     </row>
     <row r="27" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="81"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="42">
         <v>0.64229999999999998</v>
       </c>
@@ -12113,10 +12113,10 @@
       <c r="P27" s="43">
         <v>0.76790000000000003</v>
       </c>
-      <c r="R27" s="100" t="s">
+      <c r="R27" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S27" s="100"/>
+      <c r="S27" s="78"/>
       <c r="T27" s="42">
         <v>0.64949999999999997</v>
       </c>
@@ -12177,10 +12177,10 @@
       <c r="AX27" s="25"/>
     </row>
     <row r="28" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="97"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
@@ -12195,10 +12195,10 @@
       <c r="N28" s="44"/>
       <c r="O28" s="44"/>
       <c r="P28" s="44"/>
-      <c r="R28" s="101" t="s">
+      <c r="R28" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="101"/>
+      <c r="S28" s="94"/>
       <c r="T28" s="62"/>
       <c r="U28" s="62"/>
       <c r="V28" s="62"/>
@@ -12231,10 +12231,10 @@
       <c r="AX28" s="25"/>
     </row>
     <row r="29" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="81"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="42">
         <v>0.66849999999999998</v>
       </c>
@@ -12277,10 +12277,10 @@
       <c r="P29" s="43">
         <v>0.81789999999999996</v>
       </c>
-      <c r="R29" s="100" t="s">
+      <c r="R29" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="100"/>
+      <c r="S29" s="78"/>
       <c r="T29" s="42">
         <v>0.66300000000000003</v>
       </c>
@@ -12341,10 +12341,10 @@
       <c r="AX29" s="25"/>
     </row>
     <row r="30" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="81"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="42">
         <v>0.66110000000000002</v>
       </c>
@@ -12387,10 +12387,10 @@
       <c r="P30" s="43">
         <v>0.81259999999999999</v>
       </c>
-      <c r="R30" s="100" t="s">
+      <c r="R30" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="S30" s="100"/>
+      <c r="S30" s="78"/>
       <c r="T30" s="42">
         <v>0.65510000000000002</v>
       </c>
@@ -12451,10 +12451,10 @@
       <c r="AX30" s="25"/>
     </row>
     <row r="31" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="80" t="s">
+      <c r="A31" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="81"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="42">
         <v>0.66259999999999997</v>
       </c>
@@ -12497,10 +12497,10 @@
       <c r="P31" s="43">
         <v>0.81430000000000002</v>
       </c>
-      <c r="R31" s="100" t="s">
+      <c r="R31" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="S31" s="100"/>
+      <c r="S31" s="78"/>
       <c r="T31" s="42">
         <v>0.65680000000000005</v>
       </c>
@@ -12561,10 +12561,10 @@
       <c r="AX31" s="25"/>
     </row>
     <row r="32" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="81"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="42">
         <v>0.66049999999999998</v>
       </c>
@@ -12607,10 +12607,10 @@
       <c r="P32" s="43">
         <v>0.81279999999999997</v>
       </c>
-      <c r="R32" s="100" t="s">
+      <c r="R32" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="100"/>
+      <c r="S32" s="78"/>
       <c r="T32" s="42">
         <v>0.65429999999999999</v>
       </c>
@@ -12671,10 +12671,10 @@
       <c r="AX32" s="25"/>
     </row>
     <row r="33" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="97"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
       <c r="E33" s="44"/>
@@ -12689,10 +12689,10 @@
       <c r="N33" s="44"/>
       <c r="O33" s="44"/>
       <c r="P33" s="44"/>
-      <c r="R33" s="101" t="s">
+      <c r="R33" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="S33" s="101"/>
+      <c r="S33" s="94"/>
       <c r="T33" s="62"/>
       <c r="U33" s="62"/>
       <c r="V33" s="62"/>
@@ -12725,10 +12725,10 @@
       <c r="AX33" s="25"/>
     </row>
     <row r="34" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="81"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="42">
         <v>0.7228</v>
       </c>
@@ -12771,10 +12771,10 @@
       <c r="P34" s="43">
         <v>0.81789999999999996</v>
       </c>
-      <c r="R34" s="100" t="s">
+      <c r="R34" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="S34" s="100"/>
+      <c r="S34" s="78"/>
       <c r="T34" s="42">
         <v>0.7228</v>
       </c>
@@ -12835,10 +12835,10 @@
       <c r="AX34" s="25"/>
     </row>
     <row r="35" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="81"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="42">
         <v>0.72009999999999996</v>
       </c>
@@ -12881,10 +12881,10 @@
       <c r="P35" s="43">
         <v>0.81489999999999996</v>
       </c>
-      <c r="R35" s="100" t="s">
+      <c r="R35" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="S35" s="100"/>
+      <c r="S35" s="78"/>
       <c r="T35" s="42">
         <v>0.72009999999999996</v>
       </c>
@@ -12945,10 +12945,10 @@
       <c r="AX35" s="25"/>
     </row>
     <row r="36" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="81"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="42">
         <v>0.71740000000000004</v>
       </c>
@@ -12991,10 +12991,10 @@
       <c r="P36" s="43">
         <v>0.81520000000000004</v>
       </c>
-      <c r="R36" s="100" t="s">
+      <c r="R36" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="S36" s="100"/>
+      <c r="S36" s="78"/>
       <c r="T36" s="42">
         <v>0.71740000000000004</v>
       </c>
@@ -13055,10 +13055,10 @@
       <c r="AX36" s="25"/>
     </row>
     <row r="37" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="81"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="42">
         <v>0.71819999999999995</v>
       </c>
@@ -13101,10 +13101,10 @@
       <c r="P37" s="43">
         <v>0.81499999999999995</v>
       </c>
-      <c r="R37" s="100" t="s">
+      <c r="R37" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S37" s="100"/>
+      <c r="S37" s="78"/>
       <c r="T37" s="42">
         <v>0.71819999999999995</v>
       </c>
@@ -13165,10 +13165,10 @@
       <c r="AX37" s="25"/>
     </row>
     <row r="38" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="97"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
@@ -13183,10 +13183,10 @@
       <c r="N38" s="44"/>
       <c r="O38" s="44"/>
       <c r="P38" s="44"/>
-      <c r="R38" s="101" t="s">
+      <c r="R38" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="S38" s="101"/>
+      <c r="S38" s="94"/>
       <c r="T38" s="62"/>
       <c r="U38" s="62"/>
       <c r="V38" s="62"/>
@@ -13219,10 +13219,10 @@
       <c r="AX38" s="25"/>
     </row>
     <row r="39" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="81"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="42">
         <v>0.68479999999999996</v>
       </c>
@@ -13265,10 +13265,10 @@
       <c r="P39" s="43">
         <v>0.80430000000000001</v>
       </c>
-      <c r="R39" s="100" t="s">
+      <c r="R39" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="S39" s="100"/>
+      <c r="S39" s="78"/>
       <c r="T39" s="42">
         <v>0.68479999999999996</v>
       </c>
@@ -13329,10 +13329,10 @@
       <c r="AX39" s="25"/>
     </row>
     <row r="40" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="81"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="42">
         <v>0.68020000000000003</v>
       </c>
@@ -13375,10 +13375,10 @@
       <c r="P40" s="43">
         <v>0.80110000000000003</v>
       </c>
-      <c r="R40" s="100" t="s">
+      <c r="R40" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="S40" s="100"/>
+      <c r="S40" s="78"/>
       <c r="T40" s="42">
         <v>0.68020000000000003</v>
       </c>
@@ -13439,10 +13439,10 @@
       <c r="AX40" s="25"/>
     </row>
     <row r="41" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="81"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="42">
         <v>0.66830000000000001</v>
       </c>
@@ -13485,10 +13485,10 @@
       <c r="P41" s="43">
         <v>0.8014</v>
       </c>
-      <c r="R41" s="100" t="s">
+      <c r="R41" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="100"/>
+      <c r="S41" s="78"/>
       <c r="T41" s="42">
         <v>0.66830000000000001</v>
       </c>
@@ -13549,10 +13549,10 @@
       <c r="AX41" s="25"/>
     </row>
     <row r="42" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="81"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="42">
         <v>0.6321</v>
       </c>
@@ -13595,10 +13595,10 @@
       <c r="P42" s="43">
         <v>0.79990000000000006</v>
       </c>
-      <c r="R42" s="100" t="s">
+      <c r="R42" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="100"/>
+      <c r="S42" s="78"/>
       <c r="T42" s="42">
         <v>0.6321</v>
       </c>
@@ -13709,8 +13709,8 @@
       <c r="AX43" s="25"/>
     </row>
     <row r="44" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="113"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -13759,42 +13759,42 @@
       <c r="AX44" s="25"/>
     </row>
     <row r="45" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="R45" s="83" t="s">
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="R45" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="S45" s="83"/>
-      <c r="T45" s="83"/>
-      <c r="U45" s="83"/>
-      <c r="V45" s="83"/>
-      <c r="W45" s="83"/>
-      <c r="X45" s="83"/>
-      <c r="Y45" s="83"/>
-      <c r="Z45" s="83"/>
-      <c r="AA45" s="83"/>
-      <c r="AB45" s="83"/>
-      <c r="AC45" s="83"/>
-      <c r="AD45" s="83"/>
-      <c r="AE45" s="83"/>
-      <c r="AF45" s="83"/>
-      <c r="AG45" s="83"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="85"/>
+      <c r="W45" s="85"/>
+      <c r="X45" s="85"/>
+      <c r="Y45" s="85"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="85"/>
+      <c r="AC45" s="85"/>
+      <c r="AD45" s="85"/>
+      <c r="AE45" s="85"/>
+      <c r="AF45" s="85"/>
+      <c r="AG45" s="85"/>
       <c r="AI45" s="25"/>
       <c r="AJ45" s="25"/>
       <c r="AK45" s="25"/>
@@ -13813,42 +13813,42 @@
       <c r="AX45" s="25"/>
     </row>
     <row r="46" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="83" t="s">
+      <c r="A46" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
-      <c r="R46" s="83" t="s">
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="R46" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="S46" s="83"/>
-      <c r="T46" s="83"/>
-      <c r="U46" s="83"/>
-      <c r="V46" s="83"/>
-      <c r="W46" s="83"/>
-      <c r="X46" s="83"/>
-      <c r="Y46" s="83"/>
-      <c r="Z46" s="83"/>
-      <c r="AA46" s="83"/>
-      <c r="AB46" s="83"/>
-      <c r="AC46" s="83"/>
-      <c r="AD46" s="83"/>
-      <c r="AE46" s="83"/>
-      <c r="AF46" s="83"/>
-      <c r="AG46" s="83"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="85"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="85"/>
+      <c r="Z46" s="85"/>
+      <c r="AA46" s="85"/>
+      <c r="AB46" s="85"/>
+      <c r="AC46" s="85"/>
+      <c r="AD46" s="85"/>
+      <c r="AE46" s="85"/>
+      <c r="AF46" s="85"/>
+      <c r="AG46" s="85"/>
       <c r="AI46" s="25"/>
       <c r="AJ46" s="25"/>
       <c r="AK46" s="25"/>
@@ -13917,50 +13917,50 @@
       <c r="AX47" s="25"/>
     </row>
     <row r="48" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="102"/>
-      <c r="C48" s="85" t="s">
+      <c r="B48" s="86"/>
+      <c r="C48" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85" t="s">
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="85"/>
-      <c r="R48" s="85" t="s">
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="R48" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="S48" s="85"/>
-      <c r="T48" s="85" t="s">
+      <c r="S48" s="87"/>
+      <c r="T48" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="85"/>
-      <c r="V48" s="85"/>
-      <c r="W48" s="85"/>
-      <c r="X48" s="85"/>
-      <c r="Y48" s="85"/>
-      <c r="Z48" s="85"/>
-      <c r="AA48" s="85" t="s">
+      <c r="U48" s="87"/>
+      <c r="V48" s="87"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="87"/>
+      <c r="Y48" s="87"/>
+      <c r="Z48" s="87"/>
+      <c r="AA48" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AB48" s="85"/>
-      <c r="AC48" s="85"/>
-      <c r="AD48" s="85"/>
-      <c r="AE48" s="85"/>
-      <c r="AF48" s="85"/>
-      <c r="AG48" s="85"/>
+      <c r="AB48" s="87"/>
+      <c r="AC48" s="87"/>
+      <c r="AD48" s="87"/>
+      <c r="AE48" s="87"/>
+      <c r="AF48" s="87"/>
+      <c r="AG48" s="87"/>
       <c r="AI48" s="25"/>
       <c r="AJ48" s="25"/>
       <c r="AK48" s="25"/>
@@ -13979,8 +13979,8 @@
       <c r="AX48" s="25"/>
     </row>
     <row r="49" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="102"/>
-      <c r="B49" s="102"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="11">
         <v>1</v>
       </c>
@@ -14023,8 +14023,8 @@
       <c r="P49" s="11">
         <v>7</v>
       </c>
-      <c r="R49" s="85"/>
-      <c r="S49" s="85"/>
+      <c r="R49" s="87"/>
+      <c r="S49" s="87"/>
       <c r="T49" s="11">
         <v>1</v>
       </c>
@@ -14085,10 +14085,10 @@
       <c r="AX49" s="25"/>
     </row>
     <row r="50" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="86" t="s">
+      <c r="A50" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="86"/>
+      <c r="B50" s="95"/>
       <c r="C50" s="42">
         <f>MIN(C9,C14,C19,C24,C34,C39)</f>
         <v>0.6522</v>
@@ -14145,10 +14145,10 @@
         <f t="shared" si="0"/>
         <v>0.77170000000000005</v>
       </c>
-      <c r="R50" s="103" t="s">
+      <c r="R50" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="S50" s="103"/>
+      <c r="S50" s="107"/>
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="12"/>
@@ -14181,10 +14181,10 @@
       <c r="AX50" s="25"/>
     </row>
     <row r="51" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="87" t="s">
+      <c r="A51" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="87"/>
+      <c r="B51" s="92"/>
       <c r="C51" s="63">
         <f>MAX(C9,C14,C19,C24,C29,C34,C39)</f>
         <v>0.75</v>
@@ -14241,26 +14241,26 @@
         <f t="shared" si="1"/>
         <v>0.84240000000000004</v>
       </c>
-      <c r="R51" s="100" t="s">
+      <c r="R51" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="S51" s="100"/>
-      <c r="T51" s="71" t="s">
+      <c r="S51" s="78"/>
+      <c r="T51" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="U51" s="72"/>
-      <c r="V51" s="72"/>
-      <c r="W51" s="72"/>
-      <c r="X51" s="72"/>
-      <c r="Y51" s="72"/>
-      <c r="Z51" s="72"/>
-      <c r="AA51" s="72"/>
-      <c r="AB51" s="72"/>
-      <c r="AC51" s="72"/>
-      <c r="AD51" s="72"/>
-      <c r="AE51" s="72"/>
-      <c r="AF51" s="72"/>
-      <c r="AG51" s="73"/>
+      <c r="U51" s="99"/>
+      <c r="V51" s="99"/>
+      <c r="W51" s="99"/>
+      <c r="X51" s="99"/>
+      <c r="Y51" s="99"/>
+      <c r="Z51" s="99"/>
+      <c r="AA51" s="99"/>
+      <c r="AB51" s="99"/>
+      <c r="AC51" s="99"/>
+      <c r="AD51" s="99"/>
+      <c r="AE51" s="99"/>
+      <c r="AF51" s="99"/>
+      <c r="AG51" s="100"/>
       <c r="AI51" s="25"/>
       <c r="AJ51" s="25"/>
       <c r="AK51" s="25"/>
@@ -14279,10 +14279,10 @@
       <c r="AX51" s="25"/>
     </row>
     <row r="52" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="87"/>
+      <c r="B52" s="92"/>
       <c r="C52" s="63">
         <f t="shared" ref="C52:P52" si="2">AVERAGE(C9,C14,C19,C24,C29,C34,C39)</f>
         <v>0.69954285714285713</v>
@@ -14339,24 +14339,24 @@
         <f t="shared" si="2"/>
         <v>0.813642857142857</v>
       </c>
-      <c r="R52" s="100" t="s">
+      <c r="R52" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="S52" s="100"/>
-      <c r="T52" s="74"/>
-      <c r="U52" s="75"/>
-      <c r="V52" s="75"/>
-      <c r="W52" s="75"/>
-      <c r="X52" s="75"/>
-      <c r="Y52" s="75"/>
-      <c r="Z52" s="75"/>
-      <c r="AA52" s="75"/>
-      <c r="AB52" s="75"/>
-      <c r="AC52" s="75"/>
-      <c r="AD52" s="75"/>
-      <c r="AE52" s="75"/>
-      <c r="AF52" s="75"/>
-      <c r="AG52" s="76"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="101"/>
+      <c r="U52" s="102"/>
+      <c r="V52" s="102"/>
+      <c r="W52" s="102"/>
+      <c r="X52" s="102"/>
+      <c r="Y52" s="102"/>
+      <c r="Z52" s="102"/>
+      <c r="AA52" s="102"/>
+      <c r="AB52" s="102"/>
+      <c r="AC52" s="102"/>
+      <c r="AD52" s="102"/>
+      <c r="AE52" s="102"/>
+      <c r="AF52" s="102"/>
+      <c r="AG52" s="103"/>
       <c r="AI52" s="25"/>
       <c r="AJ52" s="25"/>
       <c r="AK52" s="25"/>
@@ -14375,24 +14375,24 @@
       <c r="AX52" s="25"/>
     </row>
     <row r="53" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R53" s="100" t="s">
+      <c r="R53" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="S53" s="100"/>
-      <c r="T53" s="74"/>
-      <c r="U53" s="75"/>
-      <c r="V53" s="75"/>
-      <c r="W53" s="75"/>
-      <c r="X53" s="75"/>
-      <c r="Y53" s="75"/>
-      <c r="Z53" s="75"/>
-      <c r="AA53" s="75"/>
-      <c r="AB53" s="75"/>
-      <c r="AC53" s="75"/>
-      <c r="AD53" s="75"/>
-      <c r="AE53" s="75"/>
-      <c r="AF53" s="75"/>
-      <c r="AG53" s="76"/>
+      <c r="S53" s="78"/>
+      <c r="T53" s="101"/>
+      <c r="U53" s="102"/>
+      <c r="V53" s="102"/>
+      <c r="W53" s="102"/>
+      <c r="X53" s="102"/>
+      <c r="Y53" s="102"/>
+      <c r="Z53" s="102"/>
+      <c r="AA53" s="102"/>
+      <c r="AB53" s="102"/>
+      <c r="AC53" s="102"/>
+      <c r="AD53" s="102"/>
+      <c r="AE53" s="102"/>
+      <c r="AF53" s="102"/>
+      <c r="AG53" s="103"/>
       <c r="AI53" s="25"/>
       <c r="AJ53" s="25"/>
       <c r="AK53" s="25"/>
@@ -14411,24 +14411,24 @@
       <c r="AX53" s="25"/>
     </row>
     <row r="54" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R54" s="100" t="s">
+      <c r="R54" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S54" s="100"/>
-      <c r="T54" s="77"/>
-      <c r="U54" s="78"/>
-      <c r="V54" s="78"/>
-      <c r="W54" s="78"/>
-      <c r="X54" s="78"/>
-      <c r="Y54" s="78"/>
-      <c r="Z54" s="78"/>
-      <c r="AA54" s="78"/>
-      <c r="AB54" s="78"/>
-      <c r="AC54" s="78"/>
-      <c r="AD54" s="78"/>
-      <c r="AE54" s="78"/>
-      <c r="AF54" s="78"/>
-      <c r="AG54" s="79"/>
+      <c r="S54" s="78"/>
+      <c r="T54" s="104"/>
+      <c r="U54" s="105"/>
+      <c r="V54" s="105"/>
+      <c r="W54" s="105"/>
+      <c r="X54" s="105"/>
+      <c r="Y54" s="105"/>
+      <c r="Z54" s="105"/>
+      <c r="AA54" s="105"/>
+      <c r="AB54" s="105"/>
+      <c r="AC54" s="105"/>
+      <c r="AD54" s="105"/>
+      <c r="AE54" s="105"/>
+      <c r="AF54" s="105"/>
+      <c r="AG54" s="106"/>
       <c r="AI54" s="25"/>
       <c r="AJ54" s="25"/>
       <c r="AK54" s="25"/>
@@ -14447,28 +14447,28 @@
       <c r="AX54" s="25"/>
     </row>
     <row r="55" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
-      <c r="R55" s="101" t="s">
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="R55" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="S55" s="101"/>
+      <c r="S55" s="94"/>
       <c r="T55" s="22"/>
       <c r="U55" s="22"/>
       <c r="V55" s="22"/>
@@ -14517,10 +14517,10 @@
       <c r="N56" s="23"/>
       <c r="O56" s="23"/>
       <c r="P56" s="23"/>
-      <c r="R56" s="100" t="s">
+      <c r="R56" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="S56" s="100"/>
+      <c r="S56" s="78"/>
       <c r="T56" s="20">
         <v>0.55979999999999996</v>
       </c>
@@ -14581,32 +14581,32 @@
       <c r="AX56" s="25"/>
     </row>
     <row r="57" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="102"/>
-      <c r="C57" s="85" t="s">
+      <c r="B57" s="86"/>
+      <c r="C57" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85" t="s">
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
-      <c r="R57" s="100" t="s">
+      <c r="K57" s="87"/>
+      <c r="L57" s="87"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="87"/>
+      <c r="P57" s="87"/>
+      <c r="R57" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="S57" s="100"/>
+      <c r="S57" s="78"/>
       <c r="T57" s="20">
         <v>0.55189999999999995</v>
       </c>
@@ -14667,8 +14667,8 @@
       <c r="AX57" s="25"/>
     </row>
     <row r="58" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="102"/>
-      <c r="B58" s="102"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="86"/>
       <c r="C58" s="11">
         <v>1</v>
       </c>
@@ -14711,10 +14711,10 @@
       <c r="P58" s="11">
         <v>7</v>
       </c>
-      <c r="R58" s="100" t="s">
+      <c r="R58" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="S58" s="100"/>
+      <c r="S58" s="78"/>
       <c r="T58" s="20">
         <v>0.55700000000000005</v>
       </c>
@@ -14775,10 +14775,10 @@
       <c r="AX58" s="25"/>
     </row>
     <row r="59" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="86" t="s">
+      <c r="A59" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="86"/>
+      <c r="B59" s="95"/>
       <c r="C59" s="42">
         <f>MIN(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.65759999999999996</v>
@@ -14835,10 +14835,10 @@
         <f t="shared" ref="P59" si="15">MIN(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.77170000000000005</v>
       </c>
-      <c r="R59" s="100" t="s">
+      <c r="R59" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="100"/>
+      <c r="S59" s="78"/>
       <c r="T59" s="20">
         <v>0.53879999999999995</v>
       </c>
@@ -14899,10 +14899,10 @@
       <c r="AX59" s="25"/>
     </row>
     <row r="60" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="87"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="63">
         <f>MAX(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.76629999999999998</v>
@@ -14959,10 +14959,10 @@
         <f t="shared" ref="P60" si="23">MAX(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.86680000000000001</v>
       </c>
-      <c r="R60" s="101" t="s">
+      <c r="R60" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="S60" s="101"/>
+      <c r="S60" s="94"/>
       <c r="T60" s="22"/>
       <c r="U60" s="22"/>
       <c r="V60" s="22"/>
@@ -14995,10 +14995,10 @@
       <c r="AX60" s="25"/>
     </row>
     <row r="61" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="87" t="s">
+      <c r="A61" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="87"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="63">
         <f>AVERAGE(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.70574285714285712</v>
@@ -15055,10 +15055,10 @@
         <f t="shared" ref="P61" si="30">AVERAGE(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.82257142857142873</v>
       </c>
-      <c r="R61" s="100" t="s">
+      <c r="R61" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="S61" s="100"/>
+      <c r="S61" s="78"/>
       <c r="T61" s="20">
         <v>0.76090000000000002</v>
       </c>
@@ -15119,10 +15119,10 @@
       <c r="AX61" s="25"/>
     </row>
     <row r="62" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R62" s="100" t="s">
+      <c r="R62" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="S62" s="100"/>
+      <c r="S62" s="78"/>
       <c r="T62" s="20">
         <v>0.7581</v>
       </c>
@@ -15183,10 +15183,10 @@
       <c r="AX62" s="25"/>
     </row>
     <row r="63" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R63" s="100" t="s">
+      <c r="R63" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="S63" s="100"/>
+      <c r="S63" s="78"/>
       <c r="T63" s="20">
         <v>0.75390000000000001</v>
       </c>
@@ -15247,28 +15247,28 @@
       <c r="AX63" s="25"/>
     </row>
     <row r="64" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="83"/>
-      <c r="N64" s="83"/>
-      <c r="O64" s="83"/>
-      <c r="P64" s="83"/>
-      <c r="R64" s="100" t="s">
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="85"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="85"/>
+      <c r="O64" s="85"/>
+      <c r="P64" s="85"/>
+      <c r="R64" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S64" s="100"/>
+      <c r="S64" s="78"/>
       <c r="T64" s="20">
         <v>0.75490000000000002</v>
       </c>
@@ -15345,10 +15345,10 @@
       <c r="N65" s="23"/>
       <c r="O65" s="23"/>
       <c r="P65" s="23"/>
-      <c r="R65" s="101" t="s">
+      <c r="R65" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="S65" s="101"/>
+      <c r="S65" s="94"/>
       <c r="T65" s="22"/>
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
@@ -15381,32 +15381,32 @@
       <c r="AX65" s="25"/>
     </row>
     <row r="66" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="102" t="s">
+      <c r="A66" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="102"/>
-      <c r="C66" s="85" t="s">
+      <c r="B66" s="86"/>
+      <c r="C66" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="85" t="s">
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="85"/>
-      <c r="L66" s="85"/>
-      <c r="M66" s="85"/>
-      <c r="N66" s="85"/>
-      <c r="O66" s="85"/>
-      <c r="P66" s="85"/>
-      <c r="R66" s="100" t="s">
+      <c r="K66" s="87"/>
+      <c r="L66" s="87"/>
+      <c r="M66" s="87"/>
+      <c r="N66" s="87"/>
+      <c r="O66" s="87"/>
+      <c r="P66" s="87"/>
+      <c r="R66" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="S66" s="100"/>
+      <c r="S66" s="78"/>
       <c r="T66" s="20">
         <v>0.44569999999999999</v>
       </c>
@@ -15467,8 +15467,8 @@
       <c r="AX66" s="25"/>
     </row>
     <row r="67" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="102"/>
-      <c r="B67" s="102"/>
+      <c r="A67" s="86"/>
+      <c r="B67" s="86"/>
       <c r="C67" s="11">
         <v>1</v>
       </c>
@@ -15511,10 +15511,10 @@
       <c r="P67" s="11">
         <v>7</v>
       </c>
-      <c r="R67" s="100" t="s">
+      <c r="R67" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="S67" s="100"/>
+      <c r="S67" s="78"/>
       <c r="T67" s="20">
         <v>0.48749999999999999</v>
       </c>
@@ -15575,10 +15575,10 @@
       <c r="AX67" s="25"/>
     </row>
     <row r="68" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="86" t="s">
+      <c r="A68" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="86"/>
+      <c r="B68" s="95"/>
       <c r="C68" s="42">
         <f t="shared" ref="C68:J68" si="31">MIN(T56,T61,T66,T71)</f>
         <v>0.44569999999999999</v>
@@ -15635,10 +15635,10 @@
         <f t="shared" si="32"/>
         <v>0.60599999999999998</v>
       </c>
-      <c r="R68" s="100" t="s">
+      <c r="R68" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="S68" s="100"/>
+      <c r="S68" s="78"/>
       <c r="T68" s="20">
         <v>0.43519999999999998</v>
       </c>
@@ -15699,10 +15699,10 @@
       <c r="AX68" s="25"/>
     </row>
     <row r="69" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="87" t="s">
+      <c r="A69" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="87"/>
+      <c r="B69" s="92"/>
       <c r="C69" s="63">
         <f>MAX(T56,T61,T66,T71)</f>
         <v>0.76090000000000002</v>
@@ -15759,10 +15759,10 @@
         <f t="shared" si="34"/>
         <v>0.77990000000000004</v>
       </c>
-      <c r="R69" s="100" t="s">
+      <c r="R69" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S69" s="100"/>
+      <c r="S69" s="78"/>
       <c r="T69" s="20">
         <v>0.4325</v>
       </c>
@@ -15823,10 +15823,10 @@
       <c r="AX69" s="25"/>
     </row>
     <row r="70" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="87" t="s">
+      <c r="A70" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="87"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="63">
         <f>AVERAGE(T56,T61,T66,T71)</f>
         <v>0.60192500000000004</v>
@@ -15883,10 +15883,10 @@
         <f t="shared" si="36"/>
         <v>0.72894999999999999</v>
       </c>
-      <c r="R70" s="101" t="s">
+      <c r="R70" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="S70" s="101"/>
+      <c r="S70" s="94"/>
       <c r="T70" s="22"/>
       <c r="U70" s="22"/>
       <c r="V70" s="22"/>
@@ -15935,10 +15935,10 @@
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
-      <c r="R71" s="100" t="s">
+      <c r="R71" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="S71" s="100"/>
+      <c r="S71" s="78"/>
       <c r="T71" s="20">
         <v>0.64129999999999998</v>
       </c>
@@ -15999,10 +15999,10 @@
       <c r="AX71" s="25"/>
     </row>
     <row r="72" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R72" s="100" t="s">
+      <c r="R72" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="S72" s="100"/>
+      <c r="S72" s="78"/>
       <c r="T72" s="20">
         <v>0.64639999999999997</v>
       </c>
@@ -16063,28 +16063,28 @@
       <c r="AX72" s="25"/>
     </row>
     <row r="73" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
-      <c r="K73" s="83"/>
-      <c r="L73" s="83"/>
-      <c r="M73" s="83"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="83"/>
-      <c r="P73" s="83"/>
-      <c r="R73" s="100" t="s">
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="85"/>
+      <c r="K73" s="85"/>
+      <c r="L73" s="85"/>
+      <c r="M73" s="85"/>
+      <c r="N73" s="85"/>
+      <c r="O73" s="85"/>
+      <c r="P73" s="85"/>
+      <c r="R73" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="S73" s="100"/>
+      <c r="S73" s="78"/>
       <c r="T73" s="20">
         <v>0.6371</v>
       </c>
@@ -16161,10 +16161,10 @@
       <c r="N74" s="23"/>
       <c r="O74" s="23"/>
       <c r="P74" s="23"/>
-      <c r="R74" s="100" t="s">
+      <c r="R74" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S74" s="100"/>
+      <c r="S74" s="78"/>
       <c r="T74" s="20">
         <v>0.64019999999999999</v>
       </c>
@@ -16225,32 +16225,32 @@
       <c r="AX74" s="25"/>
     </row>
     <row r="75" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="109" t="s">
+      <c r="A75" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="109"/>
-      <c r="C75" s="85" t="s">
+      <c r="B75" s="93"/>
+      <c r="C75" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="85"/>
-      <c r="J75" s="85" t="s">
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="87"/>
+      <c r="J75" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
-      <c r="M75" s="85"/>
-      <c r="N75" s="85"/>
-      <c r="O75" s="85"/>
-      <c r="P75" s="85"/>
-      <c r="R75" s="101" t="s">
+      <c r="K75" s="87"/>
+      <c r="L75" s="87"/>
+      <c r="M75" s="87"/>
+      <c r="N75" s="87"/>
+      <c r="O75" s="87"/>
+      <c r="P75" s="87"/>
+      <c r="R75" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="S75" s="101"/>
+      <c r="S75" s="94"/>
       <c r="T75" s="22"/>
       <c r="U75" s="22"/>
       <c r="V75" s="22"/>
@@ -16283,46 +16283,46 @@
       <c r="AX75" s="25"/>
     </row>
     <row r="76" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="109"/>
-      <c r="B76" s="109"/>
-      <c r="C76" s="85">
+      <c r="A76" s="93"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="87">
         <v>1</v>
       </c>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="85"/>
-      <c r="I76" s="85"/>
-      <c r="J76" s="85">
+      <c r="D76" s="87"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="87"/>
+      <c r="J76" s="87">
         <v>1</v>
       </c>
-      <c r="K76" s="85"/>
-      <c r="L76" s="85"/>
-      <c r="M76" s="85"/>
-      <c r="N76" s="85"/>
-      <c r="O76" s="85"/>
-      <c r="P76" s="85"/>
-      <c r="R76" s="100" t="s">
+      <c r="K76" s="87"/>
+      <c r="L76" s="87"/>
+      <c r="M76" s="87"/>
+      <c r="N76" s="87"/>
+      <c r="O76" s="87"/>
+      <c r="P76" s="87"/>
+      <c r="R76" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="S76" s="100"/>
-      <c r="T76" s="71" t="s">
+      <c r="S76" s="78"/>
+      <c r="T76" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="U76" s="72"/>
-      <c r="V76" s="72"/>
-      <c r="W76" s="72"/>
-      <c r="X76" s="72"/>
-      <c r="Y76" s="72"/>
-      <c r="Z76" s="72"/>
-      <c r="AA76" s="72"/>
-      <c r="AB76" s="72"/>
-      <c r="AC76" s="72"/>
-      <c r="AD76" s="72"/>
-      <c r="AE76" s="72"/>
-      <c r="AF76" s="72"/>
-      <c r="AG76" s="73"/>
+      <c r="U76" s="99"/>
+      <c r="V76" s="99"/>
+      <c r="W76" s="99"/>
+      <c r="X76" s="99"/>
+      <c r="Y76" s="99"/>
+      <c r="Z76" s="99"/>
+      <c r="AA76" s="99"/>
+      <c r="AB76" s="99"/>
+      <c r="AC76" s="99"/>
+      <c r="AD76" s="99"/>
+      <c r="AE76" s="99"/>
+      <c r="AF76" s="99"/>
+      <c r="AG76" s="100"/>
       <c r="AI76" s="25"/>
       <c r="AJ76" s="25"/>
       <c r="AK76" s="25"/>
@@ -16341,42 +16341,42 @@
       <c r="AX76" s="25"/>
     </row>
     <row r="77" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="101" t="s">
+      <c r="A77" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="101"/>
-      <c r="C77" s="106"/>
-      <c r="D77" s="107"/>
-      <c r="E77" s="107"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="108"/>
-      <c r="J77" s="106"/>
-      <c r="K77" s="107"/>
-      <c r="L77" s="107"/>
-      <c r="M77" s="107"/>
-      <c r="N77" s="107"/>
-      <c r="O77" s="107"/>
-      <c r="P77" s="108"/>
-      <c r="R77" s="100" t="s">
+      <c r="B77" s="94"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="80"/>
+      <c r="G77" s="80"/>
+      <c r="H77" s="80"/>
+      <c r="I77" s="81"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="80"/>
+      <c r="L77" s="80"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="80"/>
+      <c r="O77" s="80"/>
+      <c r="P77" s="81"/>
+      <c r="R77" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="S77" s="100"/>
-      <c r="T77" s="74"/>
-      <c r="U77" s="75"/>
-      <c r="V77" s="75"/>
-      <c r="W77" s="75"/>
-      <c r="X77" s="75"/>
-      <c r="Y77" s="75"/>
-      <c r="Z77" s="75"/>
-      <c r="AA77" s="75"/>
-      <c r="AB77" s="75"/>
-      <c r="AC77" s="75"/>
-      <c r="AD77" s="75"/>
-      <c r="AE77" s="75"/>
-      <c r="AF77" s="75"/>
-      <c r="AG77" s="76"/>
+      <c r="S77" s="78"/>
+      <c r="T77" s="101"/>
+      <c r="U77" s="102"/>
+      <c r="V77" s="102"/>
+      <c r="W77" s="102"/>
+      <c r="X77" s="102"/>
+      <c r="Y77" s="102"/>
+      <c r="Z77" s="102"/>
+      <c r="AA77" s="102"/>
+      <c r="AB77" s="102"/>
+      <c r="AC77" s="102"/>
+      <c r="AD77" s="102"/>
+      <c r="AE77" s="102"/>
+      <c r="AF77" s="102"/>
+      <c r="AG77" s="103"/>
       <c r="AI77" s="25"/>
       <c r="AJ77" s="25"/>
       <c r="AK77" s="25"/>
@@ -16395,48 +16395,48 @@
       <c r="AX77" s="25"/>
     </row>
     <row r="78" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="86" t="s">
+      <c r="A78" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="86"/>
-      <c r="C78" s="104">
+      <c r="B78" s="95"/>
+      <c r="C78" s="96">
         <f>MIN(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.56520000000000004</v>
       </c>
-      <c r="D78" s="104"/>
-      <c r="E78" s="104"/>
-      <c r="F78" s="104"/>
-      <c r="G78" s="104"/>
-      <c r="H78" s="104"/>
-      <c r="I78" s="104"/>
-      <c r="J78" s="105">
+      <c r="D78" s="96"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="96"/>
+      <c r="J78" s="83">
         <f>MIN(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.4864</v>
       </c>
-      <c r="K78" s="105"/>
-      <c r="L78" s="105"/>
-      <c r="M78" s="105"/>
-      <c r="N78" s="105"/>
-      <c r="O78" s="105"/>
-      <c r="P78" s="105"/>
-      <c r="R78" s="100" t="s">
+      <c r="K78" s="83"/>
+      <c r="L78" s="83"/>
+      <c r="M78" s="83"/>
+      <c r="N78" s="83"/>
+      <c r="O78" s="83"/>
+      <c r="P78" s="83"/>
+      <c r="R78" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="S78" s="100"/>
-      <c r="T78" s="74"/>
-      <c r="U78" s="75"/>
-      <c r="V78" s="75"/>
-      <c r="W78" s="75"/>
-      <c r="X78" s="75"/>
-      <c r="Y78" s="75"/>
-      <c r="Z78" s="75"/>
-      <c r="AA78" s="75"/>
-      <c r="AB78" s="75"/>
-      <c r="AC78" s="75"/>
-      <c r="AD78" s="75"/>
-      <c r="AE78" s="75"/>
-      <c r="AF78" s="75"/>
-      <c r="AG78" s="76"/>
+      <c r="S78" s="78"/>
+      <c r="T78" s="101"/>
+      <c r="U78" s="102"/>
+      <c r="V78" s="102"/>
+      <c r="W78" s="102"/>
+      <c r="X78" s="102"/>
+      <c r="Y78" s="102"/>
+      <c r="Z78" s="102"/>
+      <c r="AA78" s="102"/>
+      <c r="AB78" s="102"/>
+      <c r="AC78" s="102"/>
+      <c r="AD78" s="102"/>
+      <c r="AE78" s="102"/>
+      <c r="AF78" s="102"/>
+      <c r="AG78" s="103"/>
       <c r="AI78" s="25"/>
       <c r="AJ78" s="25"/>
       <c r="AK78" s="25"/>
@@ -16455,48 +16455,48 @@
       <c r="AX78" s="25"/>
     </row>
     <row r="79" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="87" t="s">
+      <c r="A79" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="87"/>
-      <c r="C79" s="104">
+      <c r="B79" s="92"/>
+      <c r="C79" s="96">
         <f>MAX(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.88039999999999996</v>
       </c>
-      <c r="D79" s="104"/>
-      <c r="E79" s="104"/>
-      <c r="F79" s="104"/>
-      <c r="G79" s="104"/>
-      <c r="H79" s="104"/>
-      <c r="I79" s="104"/>
-      <c r="J79" s="105">
+      <c r="D79" s="96"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="96"/>
+      <c r="G79" s="96"/>
+      <c r="H79" s="96"/>
+      <c r="I79" s="96"/>
+      <c r="J79" s="83">
         <f>MAX(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.86140000000000005</v>
       </c>
-      <c r="K79" s="105"/>
-      <c r="L79" s="105"/>
-      <c r="M79" s="105"/>
-      <c r="N79" s="105"/>
-      <c r="O79" s="105"/>
-      <c r="P79" s="105"/>
-      <c r="R79" s="100" t="s">
+      <c r="K79" s="83"/>
+      <c r="L79" s="83"/>
+      <c r="M79" s="83"/>
+      <c r="N79" s="83"/>
+      <c r="O79" s="83"/>
+      <c r="P79" s="83"/>
+      <c r="R79" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S79" s="100"/>
-      <c r="T79" s="77"/>
-      <c r="U79" s="78"/>
-      <c r="V79" s="78"/>
-      <c r="W79" s="78"/>
-      <c r="X79" s="78"/>
-      <c r="Y79" s="78"/>
-      <c r="Z79" s="78"/>
-      <c r="AA79" s="78"/>
-      <c r="AB79" s="78"/>
-      <c r="AC79" s="78"/>
-      <c r="AD79" s="78"/>
-      <c r="AE79" s="78"/>
-      <c r="AF79" s="78"/>
-      <c r="AG79" s="79"/>
+      <c r="S79" s="78"/>
+      <c r="T79" s="104"/>
+      <c r="U79" s="105"/>
+      <c r="V79" s="105"/>
+      <c r="W79" s="105"/>
+      <c r="X79" s="105"/>
+      <c r="Y79" s="105"/>
+      <c r="Z79" s="105"/>
+      <c r="AA79" s="105"/>
+      <c r="AB79" s="105"/>
+      <c r="AC79" s="105"/>
+      <c r="AD79" s="105"/>
+      <c r="AE79" s="105"/>
+      <c r="AF79" s="105"/>
+      <c r="AG79" s="106"/>
       <c r="AI79" s="25"/>
       <c r="AJ79" s="25"/>
       <c r="AK79" s="25"/>
@@ -16515,34 +16515,34 @@
       <c r="AX79" s="25"/>
     </row>
     <row r="80" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="87" t="s">
+      <c r="A80" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="87"/>
-      <c r="C80" s="104">
+      <c r="B80" s="92"/>
+      <c r="C80" s="96">
         <f>AVERAGE(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.77329999999999999</v>
       </c>
-      <c r="D80" s="104"/>
-      <c r="E80" s="104"/>
-      <c r="F80" s="104"/>
-      <c r="G80" s="104"/>
-      <c r="H80" s="104"/>
-      <c r="I80" s="104"/>
-      <c r="J80" s="105">
+      <c r="D80" s="96"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
+      <c r="G80" s="96"/>
+      <c r="H80" s="96"/>
+      <c r="I80" s="96"/>
+      <c r="J80" s="83">
         <f>AVERAGE(AA93,AB93,AC93,AD93,AE93,AF93,AG93)</f>
         <v>0.75155714285714281</v>
       </c>
-      <c r="K80" s="105"/>
-      <c r="L80" s="105"/>
-      <c r="M80" s="105"/>
-      <c r="N80" s="105"/>
-      <c r="O80" s="105"/>
-      <c r="P80" s="105"/>
-      <c r="R80" s="101" t="s">
+      <c r="K80" s="83"/>
+      <c r="L80" s="83"/>
+      <c r="M80" s="83"/>
+      <c r="N80" s="83"/>
+      <c r="O80" s="83"/>
+      <c r="P80" s="83"/>
+      <c r="R80" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="S80" s="101"/>
+      <c r="S80" s="94"/>
       <c r="T80" s="22"/>
       <c r="U80" s="22"/>
       <c r="V80" s="22"/>
@@ -16575,44 +16575,44 @@
       <c r="AX80" s="25"/>
     </row>
     <row r="81" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="101" t="s">
+      <c r="A81" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="101"/>
-      <c r="C81" s="106"/>
-      <c r="D81" s="107"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="108"/>
-      <c r="J81" s="106"/>
-      <c r="K81" s="107"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="107"/>
-      <c r="N81" s="107"/>
-      <c r="O81" s="107"/>
-      <c r="P81" s="108"/>
-      <c r="R81" s="100" t="s">
+      <c r="B81" s="94"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="80"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="79"/>
+      <c r="K81" s="80"/>
+      <c r="L81" s="80"/>
+      <c r="M81" s="80"/>
+      <c r="N81" s="80"/>
+      <c r="O81" s="80"/>
+      <c r="P81" s="81"/>
+      <c r="R81" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="100"/>
-      <c r="T81" s="71" t="s">
+      <c r="S81" s="78"/>
+      <c r="T81" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="U81" s="72"/>
-      <c r="V81" s="72"/>
-      <c r="W81" s="72"/>
-      <c r="X81" s="72"/>
-      <c r="Y81" s="72"/>
-      <c r="Z81" s="72"/>
-      <c r="AA81" s="72"/>
-      <c r="AB81" s="72"/>
-      <c r="AC81" s="72"/>
-      <c r="AD81" s="72"/>
-      <c r="AE81" s="72"/>
-      <c r="AF81" s="72"/>
-      <c r="AG81" s="73"/>
+      <c r="U81" s="99"/>
+      <c r="V81" s="99"/>
+      <c r="W81" s="99"/>
+      <c r="X81" s="99"/>
+      <c r="Y81" s="99"/>
+      <c r="Z81" s="99"/>
+      <c r="AA81" s="99"/>
+      <c r="AB81" s="99"/>
+      <c r="AC81" s="99"/>
+      <c r="AD81" s="99"/>
+      <c r="AE81" s="99"/>
+      <c r="AF81" s="99"/>
+      <c r="AG81" s="100"/>
       <c r="AI81" s="25"/>
       <c r="AJ81" s="25"/>
       <c r="AK81" s="25"/>
@@ -16631,48 +16631,48 @@
       <c r="AX81" s="25"/>
     </row>
     <row r="82" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="86"/>
-      <c r="C82" s="104">
+      <c r="B82" s="95"/>
+      <c r="C82" s="96">
         <f>MIN(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.60329999999999995</v>
       </c>
-      <c r="D82" s="111"/>
-      <c r="E82" s="111"/>
-      <c r="F82" s="111"/>
-      <c r="G82" s="111"/>
-      <c r="H82" s="111"/>
-      <c r="I82" s="111"/>
-      <c r="J82" s="105">
+      <c r="D82" s="97"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="97"/>
+      <c r="G82" s="97"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="97"/>
+      <c r="J82" s="83">
         <f>MIN(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="K82" s="110"/>
-      <c r="L82" s="110"/>
-      <c r="M82" s="110"/>
-      <c r="N82" s="110"/>
-      <c r="O82" s="110"/>
-      <c r="P82" s="110"/>
-      <c r="R82" s="100" t="s">
+      <c r="K82" s="84"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="84"/>
+      <c r="N82" s="84"/>
+      <c r="O82" s="84"/>
+      <c r="P82" s="84"/>
+      <c r="R82" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="S82" s="100"/>
-      <c r="T82" s="74"/>
-      <c r="U82" s="75"/>
-      <c r="V82" s="75"/>
-      <c r="W82" s="75"/>
-      <c r="X82" s="75"/>
-      <c r="Y82" s="75"/>
-      <c r="Z82" s="75"/>
-      <c r="AA82" s="75"/>
-      <c r="AB82" s="75"/>
-      <c r="AC82" s="75"/>
-      <c r="AD82" s="75"/>
-      <c r="AE82" s="75"/>
-      <c r="AF82" s="75"/>
-      <c r="AG82" s="76"/>
+      <c r="S82" s="78"/>
+      <c r="T82" s="101"/>
+      <c r="U82" s="102"/>
+      <c r="V82" s="102"/>
+      <c r="W82" s="102"/>
+      <c r="X82" s="102"/>
+      <c r="Y82" s="102"/>
+      <c r="Z82" s="102"/>
+      <c r="AA82" s="102"/>
+      <c r="AB82" s="102"/>
+      <c r="AC82" s="102"/>
+      <c r="AD82" s="102"/>
+      <c r="AE82" s="102"/>
+      <c r="AF82" s="102"/>
+      <c r="AG82" s="103"/>
       <c r="AI82" s="25"/>
       <c r="AJ82" s="25"/>
       <c r="AK82" s="25"/>
@@ -16691,48 +16691,48 @@
       <c r="AX82" s="25"/>
     </row>
     <row r="83" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="87" t="s">
+      <c r="A83" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="87"/>
-      <c r="C83" s="104">
+      <c r="B83" s="92"/>
+      <c r="C83" s="96">
         <f>MAX(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.86409999999999998</v>
       </c>
-      <c r="D83" s="111"/>
-      <c r="E83" s="111"/>
-      <c r="F83" s="111"/>
-      <c r="G83" s="111"/>
-      <c r="H83" s="111"/>
-      <c r="I83" s="111"/>
-      <c r="J83" s="105">
+      <c r="D83" s="97"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="97"/>
+      <c r="G83" s="97"/>
+      <c r="H83" s="97"/>
+      <c r="I83" s="97"/>
+      <c r="J83" s="83">
         <f>MAX(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.86680000000000001</v>
       </c>
-      <c r="K83" s="110"/>
-      <c r="L83" s="110"/>
-      <c r="M83" s="110"/>
-      <c r="N83" s="110"/>
-      <c r="O83" s="110"/>
-      <c r="P83" s="110"/>
-      <c r="R83" s="100" t="s">
+      <c r="K83" s="84"/>
+      <c r="L83" s="84"/>
+      <c r="M83" s="84"/>
+      <c r="N83" s="84"/>
+      <c r="O83" s="84"/>
+      <c r="P83" s="84"/>
+      <c r="R83" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="S83" s="100"/>
-      <c r="T83" s="74"/>
-      <c r="U83" s="75"/>
-      <c r="V83" s="75"/>
-      <c r="W83" s="75"/>
-      <c r="X83" s="75"/>
-      <c r="Y83" s="75"/>
-      <c r="Z83" s="75"/>
-      <c r="AA83" s="75"/>
-      <c r="AB83" s="75"/>
-      <c r="AC83" s="75"/>
-      <c r="AD83" s="75"/>
-      <c r="AE83" s="75"/>
-      <c r="AF83" s="75"/>
-      <c r="AG83" s="76"/>
+      <c r="S83" s="78"/>
+      <c r="T83" s="101"/>
+      <c r="U83" s="102"/>
+      <c r="V83" s="102"/>
+      <c r="W83" s="102"/>
+      <c r="X83" s="102"/>
+      <c r="Y83" s="102"/>
+      <c r="Z83" s="102"/>
+      <c r="AA83" s="102"/>
+      <c r="AB83" s="102"/>
+      <c r="AC83" s="102"/>
+      <c r="AD83" s="102"/>
+      <c r="AE83" s="102"/>
+      <c r="AF83" s="102"/>
+      <c r="AG83" s="103"/>
       <c r="AI83" s="25"/>
       <c r="AJ83" s="25"/>
       <c r="AK83" s="25"/>
@@ -16751,48 +16751,48 @@
       <c r="AX83" s="25"/>
     </row>
     <row r="84" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="87"/>
-      <c r="C84" s="104">
+      <c r="B84" s="92"/>
+      <c r="C84" s="96">
         <f>AVERAGE(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.77872857142857133</v>
       </c>
-      <c r="D84" s="111"/>
-      <c r="E84" s="111"/>
-      <c r="F84" s="111"/>
-      <c r="G84" s="111"/>
-      <c r="H84" s="111"/>
-      <c r="I84" s="111"/>
-      <c r="J84" s="105">
+      <c r="D84" s="97"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="97"/>
+      <c r="J84" s="83">
         <f>AVERAGE(AA98,AB98,AC98,AD98,AE98,AF98,AG98)</f>
         <v>0.74030000000000007</v>
       </c>
-      <c r="K84" s="110"/>
-      <c r="L84" s="110"/>
-      <c r="M84" s="110"/>
-      <c r="N84" s="110"/>
-      <c r="O84" s="110"/>
-      <c r="P84" s="110"/>
-      <c r="R84" s="100" t="s">
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="84"/>
+      <c r="R84" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S84" s="100"/>
-      <c r="T84" s="77"/>
-      <c r="U84" s="78"/>
-      <c r="V84" s="78"/>
-      <c r="W84" s="78"/>
-      <c r="X84" s="78"/>
-      <c r="Y84" s="78"/>
-      <c r="Z84" s="78"/>
-      <c r="AA84" s="78"/>
-      <c r="AB84" s="78"/>
-      <c r="AC84" s="78"/>
-      <c r="AD84" s="78"/>
-      <c r="AE84" s="78"/>
-      <c r="AF84" s="78"/>
-      <c r="AG84" s="79"/>
+      <c r="S84" s="78"/>
+      <c r="T84" s="104"/>
+      <c r="U84" s="105"/>
+      <c r="V84" s="105"/>
+      <c r="W84" s="105"/>
+      <c r="X84" s="105"/>
+      <c r="Y84" s="105"/>
+      <c r="Z84" s="105"/>
+      <c r="AA84" s="105"/>
+      <c r="AB84" s="105"/>
+      <c r="AC84" s="105"/>
+      <c r="AD84" s="105"/>
+      <c r="AE84" s="105"/>
+      <c r="AF84" s="105"/>
+      <c r="AG84" s="106"/>
       <c r="AI84" s="25"/>
       <c r="AJ84" s="25"/>
       <c r="AK84" s="25"/>
@@ -16845,24 +16845,24 @@
       <c r="AX85" s="25"/>
     </row>
     <row r="86" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="83" t="s">
+      <c r="A86" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="83"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="83"/>
-      <c r="J86" s="83"/>
-      <c r="K86" s="83"/>
-      <c r="L86" s="83"/>
-      <c r="M86" s="83"/>
-      <c r="N86" s="83"/>
-      <c r="O86" s="83"/>
-      <c r="P86" s="83"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85"/>
+      <c r="K86" s="85"/>
+      <c r="L86" s="85"/>
+      <c r="M86" s="85"/>
+      <c r="N86" s="85"/>
+      <c r="O86" s="85"/>
+      <c r="P86" s="85"/>
       <c r="AI86" s="25"/>
       <c r="AJ86" s="25"/>
       <c r="AK86" s="25"/>
@@ -16881,24 +16881,24 @@
       <c r="AX86" s="25"/>
     </row>
     <row r="87" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R87" s="83" t="s">
+      <c r="R87" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S87" s="83"/>
-      <c r="T87" s="83"/>
-      <c r="U87" s="83"/>
-      <c r="V87" s="83"/>
-      <c r="W87" s="83"/>
-      <c r="X87" s="83"/>
-      <c r="Y87" s="83"/>
-      <c r="Z87" s="83"/>
-      <c r="AA87" s="83"/>
-      <c r="AB87" s="83"/>
-      <c r="AC87" s="83"/>
-      <c r="AD87" s="83"/>
-      <c r="AE87" s="83"/>
-      <c r="AF87" s="83"/>
-      <c r="AG87" s="83"/>
+      <c r="S87" s="85"/>
+      <c r="T87" s="85"/>
+      <c r="U87" s="85"/>
+      <c r="V87" s="85"/>
+      <c r="W87" s="85"/>
+      <c r="X87" s="85"/>
+      <c r="Y87" s="85"/>
+      <c r="Z87" s="85"/>
+      <c r="AA87" s="85"/>
+      <c r="AB87" s="85"/>
+      <c r="AC87" s="85"/>
+      <c r="AD87" s="85"/>
+      <c r="AE87" s="85"/>
+      <c r="AF87" s="85"/>
+      <c r="AG87" s="85"/>
       <c r="AI87" s="25"/>
       <c r="AJ87" s="25"/>
       <c r="AK87" s="25"/>
@@ -16917,46 +16917,46 @@
       <c r="AX87" s="25"/>
     </row>
     <row r="88" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="102" t="s">
+      <c r="A88" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="102"/>
-      <c r="C88" s="85" t="s">
+      <c r="B88" s="86"/>
+      <c r="C88" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85" t="s">
+      <c r="D88" s="87"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="87"/>
+      <c r="H88" s="87"/>
+      <c r="I88" s="87"/>
+      <c r="J88" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="K88" s="85"/>
-      <c r="L88" s="85"/>
-      <c r="M88" s="85"/>
-      <c r="N88" s="85"/>
-      <c r="O88" s="85"/>
-      <c r="P88" s="85"/>
-      <c r="R88" s="83" t="s">
+      <c r="K88" s="87"/>
+      <c r="L88" s="87"/>
+      <c r="M88" s="87"/>
+      <c r="N88" s="87"/>
+      <c r="O88" s="87"/>
+      <c r="P88" s="87"/>
+      <c r="R88" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="S88" s="83"/>
-      <c r="T88" s="83"/>
-      <c r="U88" s="83"/>
-      <c r="V88" s="83"/>
-      <c r="W88" s="83"/>
-      <c r="X88" s="83"/>
-      <c r="Y88" s="83"/>
-      <c r="Z88" s="83"/>
-      <c r="AA88" s="83"/>
-      <c r="AB88" s="83"/>
-      <c r="AC88" s="83"/>
-      <c r="AD88" s="83"/>
-      <c r="AE88" s="83"/>
-      <c r="AF88" s="83"/>
-      <c r="AG88" s="83"/>
+      <c r="S88" s="85"/>
+      <c r="T88" s="85"/>
+      <c r="U88" s="85"/>
+      <c r="V88" s="85"/>
+      <c r="W88" s="85"/>
+      <c r="X88" s="85"/>
+      <c r="Y88" s="85"/>
+      <c r="Z88" s="85"/>
+      <c r="AA88" s="85"/>
+      <c r="AB88" s="85"/>
+      <c r="AC88" s="85"/>
+      <c r="AD88" s="85"/>
+      <c r="AE88" s="85"/>
+      <c r="AF88" s="85"/>
+      <c r="AG88" s="85"/>
       <c r="AI88" s="25"/>
       <c r="AJ88" s="25"/>
       <c r="AK88" s="25"/>
@@ -16975,8 +16975,8 @@
       <c r="AX88" s="25"/>
     </row>
     <row r="89" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="102"/>
-      <c r="B89" s="102"/>
+      <c r="A89" s="86"/>
+      <c r="B89" s="86"/>
       <c r="C89" s="11">
         <v>1</v>
       </c>
@@ -17037,10 +17037,10 @@
       <c r="AX89" s="25"/>
     </row>
     <row r="90" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="114" t="s">
+      <c r="A90" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="114"/>
+      <c r="B90" s="82"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
@@ -17055,28 +17055,28 @@
       <c r="N90" s="13"/>
       <c r="O90" s="13"/>
       <c r="P90" s="13"/>
-      <c r="R90" s="92" t="s">
+      <c r="R90" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="S90" s="93"/>
-      <c r="T90" s="88" t="s">
+      <c r="S90" s="89"/>
+      <c r="T90" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="U90" s="89"/>
-      <c r="V90" s="89"/>
-      <c r="W90" s="89"/>
-      <c r="X90" s="89"/>
-      <c r="Y90" s="89"/>
-      <c r="Z90" s="90"/>
-      <c r="AA90" s="88" t="s">
+      <c r="U90" s="72"/>
+      <c r="V90" s="72"/>
+      <c r="W90" s="72"/>
+      <c r="X90" s="72"/>
+      <c r="Y90" s="72"/>
+      <c r="Z90" s="73"/>
+      <c r="AA90" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="AB90" s="89"/>
-      <c r="AC90" s="89"/>
-      <c r="AD90" s="89"/>
-      <c r="AE90" s="89"/>
-      <c r="AF90" s="89"/>
-      <c r="AG90" s="90"/>
+      <c r="AB90" s="72"/>
+      <c r="AC90" s="72"/>
+      <c r="AD90" s="72"/>
+      <c r="AE90" s="72"/>
+      <c r="AF90" s="72"/>
+      <c r="AG90" s="73"/>
       <c r="AI90" s="25"/>
       <c r="AJ90" s="25"/>
       <c r="AK90" s="25"/>
@@ -17155,8 +17155,8 @@
         <f t="shared" si="38"/>
         <v>0.54000000000000714</v>
       </c>
-      <c r="R91" s="94"/>
-      <c r="S91" s="95"/>
+      <c r="R91" s="90"/>
+      <c r="S91" s="91"/>
       <c r="T91" s="11">
         <v>1</v>
       </c>
@@ -17277,10 +17277,10 @@
         <f t="shared" si="40"/>
         <v>-0.54000000000000714</v>
       </c>
-      <c r="R92" s="112" t="s">
+      <c r="R92" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="S92" s="113"/>
+      <c r="S92" s="75"/>
       <c r="T92" s="13"/>
       <c r="U92" s="13"/>
       <c r="V92" s="13"/>
@@ -17373,10 +17373,10 @@
         <f t="shared" si="42"/>
         <v>6.25</v>
       </c>
-      <c r="R93" s="80" t="s">
+      <c r="R93" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="S93" s="81"/>
+      <c r="S93" s="77"/>
       <c r="T93" s="42">
         <v>0.76090000000000002</v>
       </c>
@@ -17497,10 +17497,10 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="R94" s="80" t="s">
+      <c r="R94" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="S94" s="81"/>
+      <c r="S94" s="77"/>
       <c r="T94" s="42">
         <v>0.75080000000000002</v>
       </c>
@@ -17621,10 +17621,10 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="R95" s="80" t="s">
+      <c r="R95" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="S95" s="81"/>
+      <c r="S95" s="77"/>
       <c r="T95" s="42">
         <v>0.75219999999999998</v>
       </c>
@@ -17745,10 +17745,10 @@
         <f t="shared" si="48"/>
         <v>-0.26999999999999247</v>
       </c>
-      <c r="R96" s="80" t="s">
+      <c r="R96" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="S96" s="81"/>
+      <c r="S96" s="77"/>
       <c r="T96" s="42">
         <v>0.75039999999999996</v>
       </c>
@@ -17869,10 +17869,10 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R97" s="112" t="s">
+      <c r="R97" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="S97" s="113"/>
+      <c r="S97" s="75"/>
       <c r="T97" s="10"/>
       <c r="U97" s="10"/>
       <c r="V97" s="10"/>
@@ -17905,10 +17905,10 @@
       <c r="AX97" s="25"/>
     </row>
     <row r="98" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="114" t="s">
+      <c r="A98" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="114"/>
+      <c r="B98" s="82"/>
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
@@ -17923,10 +17923,10 @@
       <c r="N98" s="19"/>
       <c r="O98" s="19"/>
       <c r="P98" s="19"/>
-      <c r="R98" s="80" t="s">
+      <c r="R98" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="S98" s="81"/>
+      <c r="S98" s="77"/>
       <c r="T98" s="42">
         <v>0.73909999999999998</v>
       </c>
@@ -18047,10 +18047,10 @@
         <f t="shared" si="52"/>
         <v>-7.3400000000000016</v>
       </c>
-      <c r="R99" s="80" t="s">
+      <c r="R99" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="S99" s="81"/>
+      <c r="S99" s="77"/>
       <c r="T99" s="42">
         <v>0.74119999999999997</v>
       </c>
@@ -18171,10 +18171,10 @@
         <f t="shared" si="54"/>
         <v>-2.4399999999999977</v>
       </c>
-      <c r="R100" s="80" t="s">
+      <c r="R100" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="S100" s="81"/>
+      <c r="S100" s="77"/>
       <c r="T100" s="42">
         <v>0.72870000000000001</v>
       </c>
@@ -18295,10 +18295,10 @@
         <f t="shared" si="56"/>
         <v>-16.570000000000007</v>
       </c>
-      <c r="R101" s="80" t="s">
+      <c r="R101" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="81"/>
+      <c r="S101" s="77"/>
       <c r="T101" s="42">
         <v>0.72989999999999999</v>
       </c>
@@ -18437,10 +18437,10 @@
       <c r="AX102" s="25"/>
     </row>
     <row r="103" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="114" t="s">
+      <c r="A103" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="114"/>
+      <c r="B103" s="82"/>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
@@ -18551,10 +18551,10 @@
       <c r="AX104" s="25"/>
     </row>
     <row r="105" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="114" t="s">
+      <c r="A105" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="114"/>
+      <c r="B105" s="82"/>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
@@ -19014,6 +19014,184 @@
     </row>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="T76:AG79"/>
+    <mergeCell ref="T81:AG84"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="J66:P66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="T48:Z48"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="J57:P57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="T1:Z2"/>
+    <mergeCell ref="AA1:AG2"/>
+    <mergeCell ref="R3:AG3"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="AA6:AG6"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C1:I2"/>
+    <mergeCell ref="J1:P2"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="R48:S49"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R45:AG45"/>
+    <mergeCell ref="R46:AG46"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C80:I80"/>
+    <mergeCell ref="J78:P78"/>
+    <mergeCell ref="J79:P79"/>
+    <mergeCell ref="J80:P80"/>
+    <mergeCell ref="C81:I81"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="T51:AG54"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="AA48:AG48"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R88:AG88"/>
+    <mergeCell ref="R90:S91"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:I75"/>
+    <mergeCell ref="J75:P75"/>
+    <mergeCell ref="C76:I76"/>
+    <mergeCell ref="J76:P76"/>
+    <mergeCell ref="C77:I77"/>
+    <mergeCell ref="J77:P77"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="J82:P82"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="C84:I84"/>
+    <mergeCell ref="J83:P83"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
     <mergeCell ref="T90:Z90"/>
     <mergeCell ref="AA90:AG90"/>
     <mergeCell ref="R92:S92"/>
@@ -19038,184 +19216,6 @@
     <mergeCell ref="R96:S96"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="R87:AG87"/>
-    <mergeCell ref="R88:AG88"/>
-    <mergeCell ref="R90:S91"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:I75"/>
-    <mergeCell ref="J75:P75"/>
-    <mergeCell ref="C76:I76"/>
-    <mergeCell ref="J76:P76"/>
-    <mergeCell ref="C77:I77"/>
-    <mergeCell ref="J77:P77"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="J82:P82"/>
-    <mergeCell ref="C82:I82"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C83:I83"/>
-    <mergeCell ref="C84:I84"/>
-    <mergeCell ref="J83:P83"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="T51:AG54"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="AA48:AG48"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C80:I80"/>
-    <mergeCell ref="J78:P78"/>
-    <mergeCell ref="J79:P79"/>
-    <mergeCell ref="J80:P80"/>
-    <mergeCell ref="C81:I81"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="R48:S49"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R45:AG45"/>
-    <mergeCell ref="R46:AG46"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="C1:I2"/>
-    <mergeCell ref="J1:P2"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="T6:Z6"/>
-    <mergeCell ref="T1:Z2"/>
-    <mergeCell ref="AA1:AG2"/>
-    <mergeCell ref="R3:AG3"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="AA6:AG6"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T76:AG79"/>
-    <mergeCell ref="T81:AG84"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A45:P45"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="J66:P66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="T48:Z48"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A57:B58"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="J57:P57"/>
-    <mergeCell ref="A59:B59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -19932,16 +19932,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0"/>
